--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1529368969323242</v>
+        <v>0.1564523717381793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984237120135208</v>
+        <v>0.9983874787642892</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1564523717381793</v>
+        <v>0.1494315666522945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9983874787642892</v>
+        <v>0.9984598407052876</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1494315666522945</v>
+        <v>0.1524307648906948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984598407052876</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.998428928608553</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3316364171675909</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1524307648906948</v>
+        <v>0.1494536832641422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998428928608553</v>
+        <v>0.9984596127540851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3316364171675909</v>
+        <v>0.3260639631584628</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1494536832641422</v>
+        <v>0.1536395509049464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984596127540851</v>
+        <v>0.9984164699088494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3260639631584628</v>
+        <v>0.3311439993263866</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
-        </is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1194315095165318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1536395509049464</v>
+        <v>0.1487920999686091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984164699088494</v>
+        <v>0.9984664315520451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3311439993263866</v>
+        <v>0.3290793195961695</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
+          <t>Pipeline(steps=[('model',
+                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1194315095165318</v>
+        <v>0.1244229128666727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/AdaBoostRegressor/Retinopatía de fondo.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1487920999686091</v>
+        <v>0.1506605198818927</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984664315520451</v>
+        <v>0.9984471741463956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3290793195961695</v>
+        <v>0.3276022338459857</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1244229128666727</v>
+        <v>0.1217136106832186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.987</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>
